--- a/Clase_02/Mini_Desafios/Teams.xlsx
+++ b/Clase_02/Mini_Desafios/Teams.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13305" windowHeight="7020"/>
+    <workbookView windowWidth="15015" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>Equipo</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Lanus</t>
+  </si>
+  <si>
+    <t>NaN</t>
   </si>
   <si>
     <t>Estudiantes</t>
@@ -75,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -90,7 +93,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,45 +183,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,31 +216,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,44 +231,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,61 +245,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,55 +383,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,55 +419,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,6 +436,47 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -460,30 +504,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -494,21 +514,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -525,11 +530,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,7 +541,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -556,130 +559,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1009,7 +1012,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1093,8 +1096,8 @@
       <c r="C4">
         <v>26</v>
       </c>
-      <c r="D4">
-        <v>24</v>
+      <c r="D4" t="s">
+        <v>11</v>
       </c>
       <c r="E4">
         <v>21</v>
@@ -1108,13 +1111,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>13</v>
       </c>
-      <c r="C5">
-        <v>24</v>
+      <c r="C5" t="s">
+        <v>11</v>
       </c>
       <c r="D5">
         <v>21</v>
@@ -1131,7 +1134,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>13</v>
@@ -1154,7 +1157,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>14</v>
@@ -1165,8 +1168,8 @@
       <c r="D7">
         <v>25</v>
       </c>
-      <c r="E7">
-        <v>20</v>
+      <c r="E7" t="s">
+        <v>11</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -1177,7 +1180,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>13</v>
@@ -1200,7 +1203,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>13</v>
@@ -1223,7 +1226,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>14</v>
@@ -1237,8 +1240,8 @@
       <c r="E10">
         <v>8</v>
       </c>
-      <c r="F10">
-        <v>2</v>
+      <c r="F10" t="s">
+        <v>11</v>
       </c>
       <c r="G10" t="s">
         <v>8</v>
@@ -1246,7 +1249,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>13</v>

--- a/Clase_02/Mini_Desafios/Teams.xlsx
+++ b/Clase_02/Mini_Desafios/Teams.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Equipo</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>Lanus</t>
-  </si>
-  <si>
-    <t>NaN</t>
   </si>
   <si>
     <t>Estudiantes</t>
@@ -78,9 +75,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
@@ -92,6 +89,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -113,11 +126,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -130,69 +181,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,14 +219,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,187 +242,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,16 +437,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,17 +501,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,11 +519,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,7 +538,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,36 +556,36 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -601,88 +598,88 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1048,7 +1045,7 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D2">
         <v>22</v>
@@ -1096,11 +1093,11 @@
       <c r="C4">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
+      <c r="D4">
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -1111,13 +1108,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
+      <c r="C5">
+        <v>24</v>
       </c>
       <c r="D5">
         <v>21</v>
@@ -1126,7 +1123,7 @@
         <v>7</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
@@ -1134,13 +1131,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>13</v>
       </c>
       <c r="C6">
-        <v>-5</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>13</v>
@@ -1157,7 +1154,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>14</v>
@@ -1168,8 +1165,8 @@
       <c r="D7">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
-        <v>11</v>
+      <c r="E7">
+        <v>20</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -1180,7 +1177,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>13</v>
@@ -1192,7 +1189,7 @@
         <v>11</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -1203,7 +1200,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>13</v>
@@ -1226,7 +1223,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>14</v>
@@ -1240,8 +1237,8 @@
       <c r="E10">
         <v>8</v>
       </c>
-      <c r="F10" t="s">
-        <v>11</v>
+      <c r="F10">
+        <v>2</v>
       </c>
       <c r="G10" t="s">
         <v>8</v>
@@ -1249,7 +1246,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>13</v>
@@ -1264,7 +1261,7 @@
         <v>15</v>
       </c>
       <c r="F11">
-        <v>20</v>
+        <v>-5</v>
       </c>
       <c r="G11" t="s">
         <v>8</v>
